--- a/GulfSturgeonConvertFixedMortalityRateToLorenzen.xlsx
+++ b/GulfSturgeonConvertFixedMortalityRateToLorenzen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis.coggins\Documents\GitHub\GulfSturgeon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DFA253-3889-4682-8C45-6BF936A51DBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D8A348-C8A6-487E-964B-CC9C3366344A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="6" xr2:uid="{1CF84293-6DA1-41A3-865E-5B88AC501EDC}"/>
   </bookViews>
@@ -265,7 +265,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="82">
   <si>
     <t>Red Grouper Mortality</t>
   </si>
@@ -491,6 +491,27 @@
   <si>
     <t>VulnerableNequilibrium</t>
   </si>
+  <si>
+    <t>Pearl (S): 0.2839</t>
+  </si>
+  <si>
+    <t>Pascagoula: 0.0243</t>
+  </si>
+  <si>
+    <t>Escambia: 0.192</t>
+  </si>
+  <si>
+    <t>Yellow: 2.2991</t>
+  </si>
+  <si>
+    <t>Choctawhatchee: 0.9314</t>
+  </si>
+  <si>
+    <t>Apalachicola (S): 0.4982</t>
+  </si>
+  <si>
+    <t>Suwannee: 1.8896</t>
+  </si>
 </sst>
 </file>
 
@@ -501,7 +522,7 @@
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -569,6 +590,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -746,7 +773,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -853,6 +880,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1279,7 +1307,7 @@
   <dimension ref="A1:R99"/>
   <sheetViews>
     <sheetView topLeftCell="G17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1647,8 +1675,7 @@
         <v>71</v>
       </c>
       <c r="L25" s="57">
-        <f>430/1532</f>
-        <v>0.28067885117493474</v>
+        <v>0.28389999999999999</v>
       </c>
       <c r="M25">
         <v>0.34</v>
@@ -1682,7 +1709,7 @@
       </c>
       <c r="L26" s="52">
         <f>L23*L25</f>
-        <v>788.07089639992216</v>
+        <v>797.11501793376931</v>
       </c>
       <c r="P26" s="53"/>
     </row>
@@ -1700,7 +1727,7 @@
       </c>
       <c r="L27" s="53">
         <f>L24*L25</f>
-        <v>192.54569218668397</v>
+        <v>194.75540028389986</v>
       </c>
       <c r="M27" s="29"/>
       <c r="P27" s="29"/>
@@ -4891,7 +4918,7 @@
   <dimension ref="A1:R99"/>
   <sheetViews>
     <sheetView topLeftCell="D14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5256,8 +5283,7 @@
         <v>71</v>
       </c>
       <c r="L25" s="57">
-        <f>216/4022</f>
-        <v>5.370462456489309E-2</v>
+        <v>2.4299999999999999E-2</v>
       </c>
       <c r="M25">
         <v>3.6999999999999998E-2</v>
@@ -5291,7 +5317,7 @@
       </c>
       <c r="L26" s="52">
         <f>L23*L25</f>
-        <v>356.38306303318535</v>
+        <v>161.25442644594054</v>
       </c>
       <c r="P26" s="53"/>
     </row>
@@ -5309,7 +5335,7 @@
       </c>
       <c r="L27" s="53">
         <f>L24*L25</f>
-        <v>216</v>
+        <v>97.7346</v>
       </c>
       <c r="M27" s="29"/>
       <c r="P27" s="29"/>
@@ -8497,8 +8523,8 @@
   </sheetPr>
   <dimension ref="A1:R99"/>
   <sheetViews>
-    <sheetView topLeftCell="B17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView topLeftCell="E17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8863,8 +8889,7 @@
         <v>71</v>
       </c>
       <c r="L25" s="57">
-        <f>451/1071</f>
-        <v>0.42110177404295052</v>
+        <v>0.192</v>
       </c>
       <c r="M25">
         <f>0.34</f>
@@ -8899,7 +8924,7 @@
       </c>
       <c r="L26" s="52">
         <f>L23*L25</f>
-        <v>744.11463624058638</v>
+        <v>339.27667600759258</v>
       </c>
       <c r="P26" s="53"/>
     </row>
@@ -8917,7 +8942,7 @@
       </c>
       <c r="L27" s="53">
         <f>L24*L25</f>
-        <v>451.00000000000028</v>
+        <v>205.63200000000015</v>
       </c>
       <c r="M27" s="29"/>
       <c r="P27" s="29"/>
@@ -12105,8 +12130,8 @@
   </sheetPr>
   <dimension ref="A1:R99"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView topLeftCell="F10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12471,8 +12496,7 @@
         <v>71</v>
       </c>
       <c r="L25" s="57">
-        <f>911/416</f>
-        <v>2.1899038461538463</v>
+        <v>2.2991000000000001</v>
       </c>
       <c r="P25" s="52"/>
     </row>
@@ -12503,7 +12527,7 @@
       </c>
       <c r="L26" s="52">
         <f>L23*L25</f>
-        <v>2820.9937074565105</v>
+        <v>2961.6581770036414</v>
       </c>
       <c r="P26" s="53"/>
     </row>
@@ -12521,7 +12545,7 @@
       </c>
       <c r="L27" s="53">
         <f>L24*L25</f>
-        <v>1801.0494839588991</v>
+        <v>1890.8560190176515</v>
       </c>
       <c r="M27" s="29"/>
       <c r="P27" s="29"/>
@@ -15709,8 +15733,8 @@
   </sheetPr>
   <dimension ref="A1:R99"/>
   <sheetViews>
-    <sheetView topLeftCell="B15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView topLeftCell="D15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16075,8 +16099,7 @@
         <v>71</v>
       </c>
       <c r="L25" s="57">
-        <f>3314/1660</f>
-        <v>1.9963855421686747</v>
+        <v>0.93140000000000001</v>
       </c>
       <c r="P25" s="52"/>
     </row>
@@ -16107,7 +16130,7 @@
       </c>
       <c r="L26" s="52">
         <f>L23*L25</f>
-        <v>4679.9594705997397</v>
+        <v>2183.4030345568958</v>
       </c>
       <c r="P26" s="53"/>
     </row>
@@ -16125,7 +16148,7 @@
       </c>
       <c r="L27" s="53">
         <f>L24*L25</f>
-        <v>3314.0000000000018</v>
+        <v>1546.1240000000009</v>
       </c>
       <c r="M27" s="29"/>
       <c r="P27" s="29"/>
@@ -19314,7 +19337,7 @@
   <dimension ref="A1:R99"/>
   <sheetViews>
     <sheetView topLeftCell="G14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19679,8 +19702,7 @@
         <v>71</v>
       </c>
       <c r="L25" s="57">
-        <f>2000/1932</f>
-        <v>1.0351966873706004</v>
+        <v>0.49819999999999998</v>
       </c>
       <c r="P25" s="52"/>
     </row>
@@ -19711,7 +19733,7 @@
       </c>
       <c r="L26" s="52">
         <f>L23*L25</f>
-        <v>2824.3569512235381</v>
+        <v>1359.2534155741814</v>
       </c>
       <c r="P26" s="53"/>
     </row>
@@ -19729,7 +19751,7 @@
       </c>
       <c r="L27" s="53">
         <f>L24*L25</f>
-        <v>1999.9999989648036</v>
+        <v>962.52239950180001</v>
       </c>
       <c r="M27" s="29"/>
       <c r="P27" s="29"/>
@@ -22918,7 +22940,7 @@
   <dimension ref="A1:R99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -23283,8 +23305,7 @@
         <v>71</v>
       </c>
       <c r="L25" s="57">
-        <f>10000/5598</f>
-        <v>1.7863522686673812</v>
+        <v>1.8895999999999999</v>
       </c>
       <c r="P25" s="52"/>
     </row>
@@ -23315,11 +23336,11 @@
       </c>
       <c r="L26" s="52">
         <f>L23*L25</f>
-        <v>5950.9271627232074</v>
+        <v>6294.8793269484559</v>
       </c>
       <c r="P26" s="53"/>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
@@ -23333,12 +23354,14 @@
       </c>
       <c r="L27" s="53">
         <f>L24*L25</f>
-        <v>4214.0050017863514</v>
+        <v>4457.5663999999988</v>
       </c>
       <c r="M27" s="29"/>
-      <c r="P27" s="29"/>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P27" s="58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="30" t="s">
         <v>38</v>
       </c>
@@ -23353,9 +23376,11 @@
       <c r="M28" s="29"/>
       <c r="N28" s="29"/>
       <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P28" s="58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="33" t="s">
         <v>39</v>
       </c>
@@ -23398,8 +23423,11 @@
       <c r="N29" s="37" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="P29" s="58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
         <v>46</v>
       </c>
@@ -23425,8 +23453,11 @@
       <c r="L30" s="39"/>
       <c r="M30" s="39"/>
       <c r="N30" s="40"/>
-    </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="P30" s="58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
         <v>47</v>
       </c>
@@ -23479,8 +23510,11 @@
         <f t="shared" ref="N31:N62" si="8">$G31*(-LN(F$91)/SUM($G$31:$G$90))</f>
         <v>0.58476672775948935</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="P31" s="58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
         <v>48</v>
       </c>
@@ -23531,8 +23565,11 @@
         <f t="shared" si="8"/>
         <v>0.32849669060335734</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="P32" s="58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="48" t="s">
         <v>59</v>
       </c>
@@ -23586,8 +23623,11 @@
         <f t="shared" si="8"/>
         <v>0.23979526797739359</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="P33" s="58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
         <v>60</v>
       </c>
@@ -23642,7 +23682,7 @@
         <v>0.19471501411681191</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="C35" s="38">
         <v>5</v>
       </c>
@@ -23691,7 +23731,7 @@
         <v>0.16751452546869633</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>68</v>
       </c>
@@ -23746,7 +23786,7 @@
         <v>0.1494099015917642</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>69</v>
       </c>
@@ -23801,7 +23841,7 @@
         <v>0.13657080293696072</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="C38" s="38">
         <v>8</v>
       </c>
@@ -23850,7 +23890,7 @@
         <v>0.12705532764676863</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="C39" s="38">
         <v>9</v>
       </c>
@@ -23899,7 +23939,7 @@
         <v>0.11977202800992803</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="C40" s="38">
         <v>10</v>
       </c>
@@ -23948,7 +23988,7 @@
         <v>0.11405940789611037</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="C41" s="38">
         <v>11</v>
       </c>
@@ -23997,7 +24037,7 @@
         <v>0.10949274003939675</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="38">
         <v>12</v>
       </c>
@@ -24046,7 +24086,7 @@
         <v>0.10578658606624386</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="C43" s="38">
         <v>13</v>
       </c>
@@ -24095,7 +24135,7 @@
         <v>0.10274188384396109</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="C44" s="38">
         <v>14</v>
       </c>
@@ -24144,7 +24184,7 @@
         <v>0.10021549438251411</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="C45" s="38">
         <v>15</v>
       </c>
@@ -24193,7 +24233,7 @@
         <v>9.8101811327221233E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="C46" s="38">
         <v>16</v>
       </c>
@@ -24242,7 +24282,7 @@
         <v>9.6321198509786946E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="C47" s="38">
         <v>17</v>
       </c>
@@ -24291,7 +24331,7 @@
         <v>9.4812466976820803E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="C48" s="38">
         <v>18</v>
       </c>
